--- a/demand_description/docs/Checks_v1.xlsx
+++ b/demand_description/docs/Checks_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="71">
   <si>
     <t>Page</t>
   </si>
@@ -62,7 +62,7 @@
 /api/Alerts/fetch-alerts-priority?priority=(num)</t>
   </si>
   <si>
-    <t>finished</t>
+    <t>√</t>
   </si>
   <si>
     <t>the fetch alert count makes sense though</t>
@@ -254,6 +254,58 @@
     <t>there is /fetch-firefly-state and /fetch firefly states, the ladder should return all firefly states. if my assumption is correct, you do not need devices in this calculation as this is meant to toggle firefly(lock) state on or off and you get all those states from fetch device state. to achieve this use /api/Management/firefly-info?ff_id=(lock id)
 although sounds like you need a route that returns a list of firefly infos which i can add</t>
   </si>
+  <si>
+    <t>Search bar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search bar includes ip,port and date,so when they has changed,Which modules below will undergo changes
+</t>
+  </si>
+  <si>
+    <t>Locks by Throughput</t>
+  </si>
+  <si>
+    <t>/Networks/lock-throughput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">but response is "The tag field is required.I don't know where to get this tag parameter from and I'm not sure if using this API to obtain table data is correct </t>
+  </si>
+  <si>
+    <t>/QuickWins/investigate-logs ? 
+/Alerts/fetch-alerts-all ?</t>
+  </si>
+  <si>
+    <t>need params page_size, page_index, ff_name, start, end. but 
+dashboard page search bar only provide start and end. no ff_name.In my understanding, security incidents are not recorded for a specific device, but rather all events are returned in reverse chronological order, and only about 10 events are displayed on the panel page. I hope to query all available parameters page_index and page_size for Recent Security Events when/Alerts/fetch alerts all do not pass parameters</t>
+  </si>
+  <si>
+    <t>Device Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topogy </t>
+  </si>
+  <si>
+    <t>Firefly/fetch-firefly-devices?id=xxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In my understanding, the topology diagram is a display of the relationship between firefly devices and bound firebug devices
+But I don't know what the list and figures below represent, or what API to use
+</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What interface to use
+What interface to use
+</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>What interface to use</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +317,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +331,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -797,137 +857,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -938,30 +998,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1439,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
@@ -1449,7 +1512,7 @@
     <col min="2" max="2" width="32.7142857142857" customWidth="1"/>
     <col min="3" max="3" width="54.1428571428571" customWidth="1"/>
     <col min="4" max="4" width="50.2857142857143" customWidth="1"/>
-    <col min="5" max="5" width="21.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="21.2857142857143" style="3" customWidth="1"/>
     <col min="6" max="6" width="58" customWidth="1"/>
     <col min="7" max="26" width="9" customWidth="1"/>
   </cols>
@@ -1475,7 +1538,7 @@
       </c>
     </row>
     <row r="2" ht="30" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
@@ -1484,10 +1547,10 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
@@ -1509,10 +1572,10 @@
       <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1523,32 +1586,32 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="45" spans="2:6">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="30" spans="2:6">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
@@ -1559,13 +1622,13 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>32</v>
       </c>
       <c r="F8" t="s">
@@ -1576,10 +1639,10 @@
       <c r="B9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1587,7 +1650,7 @@
       <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
       <c r="F10" t="s">
@@ -1598,27 +1661,27 @@
       <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="60" spans="1:6">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="45" spans="1:6">
+      <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1626,10 +1689,10 @@
       <c r="B13" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1637,8 +1700,8 @@
       <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>19</v>
+      <c r="C14" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>28</v>
@@ -1648,19 +1711,19 @@
       </c>
     </row>
     <row r="15" ht="180" spans="1:6">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2659,18 +2722,113 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A21:A1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="26" width="9" customWidth="1"/>
+    <col min="1" max="1" width="41.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="33.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="41.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="57.4285714285714" customWidth="1"/>
+    <col min="5" max="5" width="15.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="30.8571428571429" customWidth="1"/>
+    <col min="7" max="26" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" ht="70" customHeight="1" spans="1:4">
+      <c r="A3" s="3"/>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" ht="132" customHeight="1" spans="1:4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" ht="87" customHeight="1" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6" s="3"/>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7" s="3"/>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -3650,7 +3808,12 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
